--- a/TrueTestRun/App_Data/Requests/EPE-EE-25-024/request.xlsx
+++ b/TrueTestRun/App_Data/Requests/EPE-EE-25-024/request.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>EPE-EE Ver2</t>
   </si>
@@ -318,9 +318,6 @@
 発行日</t>
   </si>
   <si>
-    <t>2025-08-22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Model SX
 生産モデル</t>
   </si>
@@ -348,18 +345,12 @@
 部品コード</t>
   </si>
   <si>
-    <t>M9292020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tên linh kiện
 部品名</t>
   </si>
   <si>
     <t xml:space="preserve">Nhà cung cấp
 業者名</t>
-  </si>
-  <si>
-    <t>Brother</t>
   </si>
   <si>
     <t xml:space="preserve">Thay đổi thiết kế: DCI WP202502840 thay đổi nhà máy sản xuất Transformer
@@ -576,9 +567,6 @@
     <t>　PC</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <t xml:space="preserve">Đã xác nhận FA sample
 </t>
@@ -613,9 +601,6 @@
     <t>Signature</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>　MC</t>
   </si>
   <si>
@@ -634,6 +619,9 @@
       </rPr>
       <t>事前組付確認実施済</t>
     </r>
+  </si>
+  <si>
+    <t>v</t>
   </si>
   <si>
     <t xml:space="preserve">Đã nhận hàng test run
@@ -771,6 +759,9 @@
   </si>
   <si>
     <t>KTTB:</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t xml:space="preserve">NG数：r =      </t>
@@ -16230,35 +16221,33 @@
       <c r="B8" s="259"/>
       <c r="C8" s="259"/>
       <c r="D8" s="259"/>
-      <c r="E8" s="261" t="s">
-        <v>6</v>
-      </c>
+      <c r="E8" s="261"/>
       <c r="F8" s="262"/>
       <c r="G8" s="262"/>
       <c r="H8" s="262"/>
       <c r="I8" s="262"/>
       <c r="J8" s="262"/>
       <c r="K8" s="259" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" s="259"/>
       <c r="M8" s="259"/>
       <c r="N8" s="259"/>
       <c r="O8" s="262" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P8" s="262"/>
       <c r="Q8" s="262"/>
       <c r="R8" s="262"/>
       <c r="S8" s="262"/>
       <c r="T8" s="264" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U8" s="264"/>
       <c r="V8" s="264"/>
       <c r="W8" s="264"/>
       <c r="X8" s="266" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y8" s="266"/>
       <c r="Z8" s="266"/>
@@ -16267,16 +16256,16 @@
       <c r="AC8" s="266"/>
       <c r="AD8" s="266"/>
       <c r="AE8" s="268" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF8" s="268"/>
       <c r="AG8" s="270" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH8" s="270"/>
       <c r="AI8" s="271"/>
       <c r="AM8" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1" s="34" customFormat="1">
@@ -16319,22 +16308,20 @@
     </row>
     <row r="10" ht="24.6" customHeight="1" s="34" customFormat="1">
       <c r="A10" s="274" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="275"/>
       <c r="C10" s="275"/>
       <c r="D10" s="275"/>
       <c r="E10" s="275"/>
-      <c r="F10" s="277" t="s">
-        <v>15</v>
-      </c>
+      <c r="F10" s="277"/>
       <c r="G10" s="223"/>
       <c r="H10" s="223"/>
       <c r="I10" s="223"/>
       <c r="J10" s="223"/>
       <c r="K10" s="278"/>
       <c r="L10" s="280" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" s="280"/>
       <c r="N10" s="280"/>
@@ -16351,14 +16338,12 @@
       <c r="Y10" s="281"/>
       <c r="Z10" s="281"/>
       <c r="AA10" s="282" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB10" s="283"/>
       <c r="AC10" s="283"/>
       <c r="AD10" s="283"/>
-      <c r="AE10" s="253" t="s">
-        <v>18</v>
-      </c>
+      <c r="AE10" s="253"/>
       <c r="AF10" s="253"/>
       <c r="AG10" s="253"/>
       <c r="AH10" s="253"/>
@@ -16402,12 +16387,12 @@
       <c r="AH11" s="253"/>
       <c r="AI11" s="254"/>
       <c r="AM11" s="38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" s="34" customFormat="1">
       <c r="A12" s="207" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="208"/>
       <c r="C12" s="208"/>
@@ -16420,7 +16405,7 @@
       <c r="J12" s="116"/>
       <c r="K12" s="117"/>
       <c r="L12" s="213" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
@@ -16434,7 +16419,7 @@
       <c r="V12" s="116"/>
       <c r="W12" s="117"/>
       <c r="X12" s="216" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y12" s="217"/>
       <c r="Z12" s="217"/>
@@ -16448,7 +16433,7 @@
       <c r="AH12" s="223"/>
       <c r="AI12" s="224"/>
       <c r="AM12" s="38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" s="34" customFormat="1">
@@ -16488,12 +16473,12 @@
       <c r="AH13" s="226"/>
       <c r="AI13" s="227"/>
       <c r="AM13" s="38" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" s="34" customFormat="1">
       <c r="A14" s="228" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="229"/>
       <c r="C14" s="229"/>
@@ -16503,7 +16488,7 @@
       <c r="G14" s="229"/>
       <c r="H14" s="229"/>
       <c r="I14" s="234" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J14" s="235"/>
       <c r="K14" s="235"/>
@@ -16518,7 +16503,7 @@
       <c r="T14" s="235"/>
       <c r="U14" s="236"/>
       <c r="V14" s="240" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W14" s="240"/>
       <c r="X14" s="240"/>
@@ -16594,7 +16579,7 @@
       <c r="T16" s="245"/>
       <c r="U16" s="246"/>
       <c r="V16" s="217" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W16" s="217"/>
       <c r="X16" s="217"/>
@@ -16684,7 +16669,7 @@
       <c r="AH18" s="202"/>
       <c r="AI18" s="203"/>
       <c r="AM18" s="39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN18" s="39"/>
       <c r="AO18" s="39"/>
@@ -16729,7 +16714,7 @@
       <c r="AH19" s="205"/>
       <c r="AI19" s="206"/>
       <c r="AM19" s="39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AN19" s="39"/>
       <c r="AO19" s="39"/>
@@ -16739,14 +16724,14 @@
     </row>
     <row r="20" ht="14.25" customHeight="1" s="34" customFormat="1">
       <c r="A20" s="171" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" s="172"/>
       <c r="C20" s="172"/>
       <c r="D20" s="172"/>
       <c r="E20" s="172"/>
       <c r="F20" s="175" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G20" s="175"/>
       <c r="H20" s="175"/>
@@ -16754,14 +16739,14 @@
       <c r="J20" s="175"/>
       <c r="K20" s="176"/>
       <c r="L20" s="179" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M20" s="172"/>
       <c r="N20" s="172"/>
       <c r="O20" s="172"/>
       <c r="P20" s="172"/>
       <c r="Q20" s="175" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R20" s="175"/>
       <c r="S20" s="175"/>
@@ -16769,13 +16754,13 @@
       <c r="U20" s="175"/>
       <c r="V20" s="181"/>
       <c r="W20" s="183" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X20" s="175"/>
       <c r="Y20" s="175"/>
       <c r="Z20" s="175"/>
       <c r="AA20" s="185" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AB20" s="185"/>
       <c r="AC20" s="185"/>
@@ -16786,7 +16771,7 @@
       <c r="AH20" s="185"/>
       <c r="AI20" s="186"/>
       <c r="AM20" s="39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AN20" s="39"/>
       <c r="AO20" s="39"/>
@@ -16831,7 +16816,7 @@
       <c r="AH21" s="187"/>
       <c r="AI21" s="188"/>
       <c r="AM21" s="39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AN21" s="39"/>
       <c r="AO21" s="39"/>
@@ -16841,27 +16826,27 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" s="34" customFormat="1">
       <c r="A22" s="189" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" s="161"/>
       <c r="C22" s="161"/>
       <c r="D22" s="190"/>
       <c r="E22" s="40"/>
       <c r="F22" s="197" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G22" s="161"/>
       <c r="H22" s="161"/>
       <c r="I22" s="161"/>
       <c r="J22" s="161"/>
       <c r="K22" s="197" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L22" s="161"/>
       <c r="M22" s="161"/>
       <c r="N22" s="161"/>
       <c r="O22" s="197" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P22" s="161"/>
       <c r="Q22" s="161"/>
@@ -16869,7 +16854,7 @@
       <c r="S22" s="161"/>
       <c r="T22" s="190"/>
       <c r="U22" s="197" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V22" s="161"/>
       <c r="W22" s="161"/>
@@ -16877,7 +16862,7 @@
       <c r="Y22" s="161"/>
       <c r="Z22" s="190"/>
       <c r="AA22" s="161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB22" s="161"/>
       <c r="AC22" s="161"/>
@@ -16888,7 +16873,7 @@
       <c r="AH22" s="161"/>
       <c r="AI22" s="162"/>
       <c r="AM22" s="39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AN22" s="39"/>
       <c r="AO22" s="39"/>
@@ -17053,7 +17038,7 @@
     <row r="27" ht="15.75" customHeight="1" s="34" customFormat="1">
       <c r="A27" s="58"/>
       <c r="B27" s="59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -17071,10 +17056,10 @@
       <c r="P27" s="59"/>
       <c r="Q27" s="59"/>
       <c r="R27" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S27" s="59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T27" s="59"/>
       <c r="U27" s="59"/>
@@ -17097,11 +17082,9 @@
     </row>
     <row r="28" ht="26.45" customHeight="1" s="34" customFormat="1">
       <c r="A28" s="58"/>
-      <c r="B28" s="61" t="s">
-        <v>46</v>
-      </c>
+      <c r="B28" s="61"/>
       <c r="C28" s="147" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D28" s="147"/>
       <c r="E28" s="147"/>
@@ -17114,17 +17097,15 @@
       <c r="L28" s="147"/>
       <c r="M28" s="62"/>
       <c r="N28" s="150" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O28" s="151"/>
       <c r="P28" s="151"/>
       <c r="Q28" s="152"/>
       <c r="R28" s="59"/>
-      <c r="S28" s="61" t="s">
-        <v>46</v>
-      </c>
+      <c r="S28" s="61"/>
       <c r="T28" s="147" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U28" s="147"/>
       <c r="V28" s="147"/>
@@ -17137,7 +17118,7 @@
       <c r="AC28" s="62"/>
       <c r="AD28" s="62"/>
       <c r="AE28" s="154" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF28" s="155"/>
       <c r="AG28" s="155"/>
@@ -17185,9 +17166,7 @@
       <c r="A30" s="58"/>
       <c r="B30" s="63"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="59" t="s">
-        <v>51</v>
-      </c>
+      <c r="D30" s="59"/>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
@@ -17206,9 +17185,7 @@
       <c r="T30" s="59"/>
       <c r="U30" s="59"/>
       <c r="V30" s="59"/>
-      <c r="W30" s="59" t="s">
-        <v>51</v>
-      </c>
+      <c r="W30" s="59"/>
       <c r="X30" s="59"/>
       <c r="Y30" s="59"/>
       <c r="Z30" s="59"/>
@@ -17336,7 +17313,7 @@
     <row r="34" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A34" s="58"/>
       <c r="B34" s="58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -17354,10 +17331,10 @@
       <c r="P34" s="59"/>
       <c r="Q34" s="59"/>
       <c r="R34" s="59" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S34" s="59" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="T34" s="59"/>
       <c r="U34" s="59"/>
@@ -17378,11 +17355,9 @@
     </row>
     <row r="35" ht="23.25" customHeight="1" s="34" customFormat="1">
       <c r="A35" s="58"/>
-      <c r="B35" s="61" t="s">
-        <v>46</v>
-      </c>
+      <c r="B35" s="61"/>
       <c r="C35" s="147" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D35" s="148"/>
       <c r="E35" s="148"/>
@@ -17395,17 +17370,17 @@
       <c r="L35" s="148"/>
       <c r="M35" s="149"/>
       <c r="N35" s="150" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O35" s="151"/>
       <c r="P35" s="151"/>
       <c r="Q35" s="152"/>
       <c r="R35" s="59"/>
       <c r="S35" s="61" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T35" s="153" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U35" s="153"/>
       <c r="V35" s="153"/>
@@ -17418,7 +17393,7 @@
       <c r="AC35" s="62"/>
       <c r="AD35" s="62"/>
       <c r="AE35" s="154" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF35" s="155"/>
       <c r="AG35" s="155"/>
@@ -17466,9 +17441,7 @@
       <c r="A37" s="58"/>
       <c r="B37" s="64"/>
       <c r="C37" s="59"/>
-      <c r="D37" s="59" t="s">
-        <v>51</v>
-      </c>
+      <c r="D37" s="59"/>
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
       <c r="G37" s="59"/>
@@ -17487,7 +17460,7 @@
       <c r="T37" s="59"/>
       <c r="U37" s="59"/>
       <c r="V37" s="59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W37" s="59"/>
       <c r="X37" s="59"/>
@@ -17616,7 +17589,7 @@
     </row>
     <row r="41" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A41" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
@@ -17636,7 +17609,7 @@
       <c r="Q41" s="59"/>
       <c r="R41" s="59"/>
       <c r="S41" s="67" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="T41" s="67"/>
       <c r="U41" s="67"/>
@@ -17658,7 +17631,7 @@
     <row r="42" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A42" s="58"/>
       <c r="B42" s="68" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="62"/>
@@ -17677,7 +17650,7 @@
       <c r="Q42" s="69"/>
       <c r="R42" s="62"/>
       <c r="S42" s="70" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="T42" s="62"/>
       <c r="U42" s="62"/>
@@ -17699,20 +17672,20 @@
     <row r="43" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A43" s="58"/>
       <c r="B43" s="71" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C43" s="72" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
       <c r="F43" s="59"/>
       <c r="G43" s="59"/>
       <c r="H43" s="73" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I43" s="72" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J43" s="59"/>
       <c r="K43" s="59"/>
@@ -17724,17 +17697,17 @@
       <c r="Q43" s="109"/>
       <c r="R43" s="59"/>
       <c r="S43" s="74" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T43" s="284" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U43" s="59"/>
       <c r="V43" s="72" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="W43" s="72" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="X43" s="59"/>
       <c r="Y43" s="59"/>
@@ -17752,10 +17725,10 @@
     <row r="44" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A44" s="96"/>
       <c r="B44" s="97" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C44" s="72" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
@@ -17768,32 +17741,32 @@
       <c r="L44" s="59"/>
       <c r="M44" s="59"/>
       <c r="N44" s="143" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O44" s="144"/>
       <c r="P44" s="144"/>
       <c r="Q44" s="145"/>
       <c r="R44" s="59"/>
       <c r="S44" s="74" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T44" s="59"/>
       <c r="U44" s="59"/>
       <c r="V44" s="59"/>
       <c r="W44" s="59"/>
       <c r="X44" s="59" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Y44" s="59"/>
       <c r="Z44" s="59"/>
       <c r="AA44" s="59"/>
       <c r="AB44" s="59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AC44" s="59"/>
       <c r="AD44" s="59"/>
       <c r="AE44" s="143" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF44" s="144"/>
       <c r="AG44" s="144"/>
@@ -17821,7 +17794,7 @@
       <c r="Q45" s="114"/>
       <c r="R45" s="59"/>
       <c r="S45" s="74" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T45" s="59"/>
       <c r="U45" s="59"/>
@@ -17846,7 +17819,7 @@
       <c r="B46" s="64"/>
       <c r="C46" s="59"/>
       <c r="D46" s="59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E46" s="59"/>
       <c r="F46" s="59"/>
@@ -17995,7 +17968,7 @@
     </row>
     <row r="50" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A50" s="98" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B50" s="59"/>
       <c r="C50" s="99"/>
@@ -18015,7 +17988,7 @@
       <c r="Q50" s="99"/>
       <c r="R50" s="99"/>
       <c r="S50" s="159" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="T50" s="159"/>
       <c r="U50" s="159"/>
@@ -18039,7 +18012,7 @@
     <row r="51" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A51" s="58"/>
       <c r="B51" s="68" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C51" s="62"/>
       <c r="D51" s="62"/>
@@ -18058,7 +18031,7 @@
       <c r="Q51" s="69"/>
       <c r="R51" s="62"/>
       <c r="S51" s="74" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="T51" s="59"/>
       <c r="U51" s="59"/>
@@ -18079,21 +18052,17 @@
     </row>
     <row r="52" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A52" s="58"/>
-      <c r="B52" s="71" t="s">
-        <v>46</v>
-      </c>
+      <c r="B52" s="71"/>
       <c r="C52" s="80" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
       <c r="F52" s="59"/>
       <c r="G52" s="59"/>
-      <c r="H52" s="73" t="s">
-        <v>46</v>
-      </c>
+      <c r="H52" s="73"/>
       <c r="I52" s="80" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J52" s="59"/>
       <c r="K52" s="59"/>
@@ -18105,13 +18074,13 @@
       <c r="Q52" s="109"/>
       <c r="R52" s="59"/>
       <c r="S52" s="81" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="T52" s="75"/>
       <c r="U52" s="75"/>
       <c r="V52" s="82"/>
       <c r="W52" s="83" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="X52" s="75"/>
       <c r="Y52" s="75"/>
@@ -18139,7 +18108,7 @@
     <row r="53" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A53" s="58"/>
       <c r="B53" s="64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
@@ -18153,20 +18122,20 @@
       <c r="L53" s="59"/>
       <c r="M53" s="59"/>
       <c r="N53" s="143" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O53" s="144"/>
       <c r="P53" s="144"/>
       <c r="Q53" s="145"/>
       <c r="R53" s="59"/>
       <c r="S53" s="81" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T53" s="75"/>
       <c r="U53" s="75"/>
       <c r="V53" s="82"/>
       <c r="W53" s="81" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X53" s="75"/>
       <c r="Y53" s="85"/>
@@ -18176,7 +18145,7 @@
       <c r="AC53" s="75"/>
       <c r="AD53" s="75"/>
       <c r="AE53" s="143" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF53" s="144"/>
       <c r="AG53" s="144"/>
@@ -18196,12 +18165,12 @@
     <row r="54" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A54" s="58"/>
       <c r="B54" s="64" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
       <c r="E54" s="59" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F54" s="59"/>
       <c r="G54" s="59"/>
@@ -18217,21 +18186,21 @@
       <c r="Q54" s="114"/>
       <c r="R54" s="59"/>
       <c r="S54" s="86" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T54" s="87"/>
       <c r="U54" s="87"/>
       <c r="V54" s="88" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W54" s="86" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="X54" s="87"/>
       <c r="Y54" s="89"/>
       <c r="Z54" s="87"/>
       <c r="AA54" s="89" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AB54" s="87"/>
       <c r="AC54" s="87"/>
@@ -18256,7 +18225,7 @@
     <row r="55" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A55" s="58"/>
       <c r="B55" s="64" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
@@ -18275,21 +18244,21 @@
       <c r="Q55" s="114"/>
       <c r="R55" s="59"/>
       <c r="S55" s="86" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T55" s="87"/>
       <c r="U55" s="87"/>
       <c r="V55" s="88" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W55" s="86" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="X55" s="87"/>
       <c r="Y55" s="90"/>
       <c r="Z55" s="87"/>
       <c r="AA55" s="89" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AB55" s="87"/>
       <c r="AC55" s="87"/>
@@ -18313,12 +18282,12 @@
     <row r="56" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A56" s="58"/>
       <c r="B56" s="64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
       <c r="E56" s="59" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F56" s="59"/>
       <c r="G56" s="59"/>
@@ -18334,13 +18303,13 @@
       <c r="Q56" s="114"/>
       <c r="R56" s="59"/>
       <c r="S56" s="91" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T56" s="87"/>
       <c r="U56" s="87"/>
       <c r="V56" s="88"/>
       <c r="W56" s="91" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="X56" s="87"/>
       <c r="Y56" s="87"/>
@@ -18508,7 +18477,7 @@
     </row>
     <row r="60" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A60" s="124" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B60" s="125"/>
       <c r="C60" s="125"/>
@@ -18540,7 +18509,7 @@
       <c r="AC60" s="125"/>
       <c r="AD60" s="126"/>
       <c r="AE60" s="130" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AF60" s="131"/>
       <c r="AG60" s="131"/>
@@ -18606,7 +18575,7 @@
     </row>
     <row r="62" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A62" s="124" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B62" s="125"/>
       <c r="C62" s="125"/>
@@ -18796,7 +18765,7 @@
     </row>
     <row r="66" ht="23.45" customHeight="1" s="34" customFormat="1">
       <c r="A66" s="110" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B66" s="110"/>
       <c r="C66" s="110"/>
@@ -18940,7 +18909,7 @@
     </row>
     <row r="72" ht="409.5">
       <c r="S72" s="101" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
